--- a/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>79.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>53.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6133</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.01</v>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.27</v>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.83</v>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.01</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.27</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.83</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.01</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1623,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.27</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1661,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6489</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3858</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.08</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>012210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.30</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6576</t>
+          <t>0.1984</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -715,35 +677,263 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6133</t>
+          <t>0.1479</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -779,7 +969,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,36 +999,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>012210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48.64</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1888</t>
+          <t>0.1756</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -847,36 +1037,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.69</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>76.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7960</t>
+          <t>0.1707</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -885,36 +1075,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005477</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合A</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>94.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.1644</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -923,36 +1113,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005478</t>
+          <t>012211</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合C</t>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0517</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1301,36 +1491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012210</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金A</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>48.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1756</t>
+          <t>2.1888</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1339,36 +1529,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>17.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1707</t>
+          <t>0.7960</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1377,36 +1567,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>005477</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>长安鑫禧灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1644</t>
+          <t>0.0217</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1415,36 +1605,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012211</t>
+          <t>005478</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
+          <t>长安鑫禧灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0517</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,7 +1669,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1509,36 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012210</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金A</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>53.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1984</t>
+          <t>1.6576</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1547,263 +1737,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1479</t>
+          <t>0.6133</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1479</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001167</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰科技创新股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1412</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007685</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商电子行业量化股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012211</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0546</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005569</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融智选红利股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005570</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中融智选红利股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1818,128 +1780,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.77</v>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.08</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.83</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>3.01</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.27</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -583,6 +600,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -942,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1150,7 +1793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +2077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1642,7 +2285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1774,7 +2417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300709-精研科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.77</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.83</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.01</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>2.27</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013623</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湘财周期轮动一年持有期混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2313</t>
+          <t>0.1570</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1663</t>
+          <t>0.1515</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1605</t>
+          <t>0.1469</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>012210</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>申万菱信智能汽车股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>85.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1543</t>
+          <t>0.1387</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.28</t>
+          <t>76.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1487</t>
+          <t>0.1343</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012210</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票A</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>98.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1427</t>
+          <t>0.1124</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -884,12 +901,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -899,21 +916,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0772</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -922,12 +939,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -937,21 +954,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0688</t>
+          <t>0.0757</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007685</t>
+          <t>012211</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商电子行业量化股票</t>
+          <t>申万菱信智能汽车股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>85.83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.0505</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012211</t>
+          <t>008602</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票C</t>
+          <t>方正富邦新兴成长混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>87.26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1036,32 +1053,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008602</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>方正富邦新兴成长混合A</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.03</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0480</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1074,32 +1091,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>007468</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>中信建投策略精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>70.09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009937</t>
+          <t>007469</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合A</t>
+          <t>中信建投策略精选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20.97</t>
+          <t>70.09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1150,32 +1167,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009938</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20.97</t>
+          <t>98.12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1203,21 +1220,21 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86.03</t>
+          <t>87.26</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1226,6 +1243,632 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +2436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2077,7 +2720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2417,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
